--- a/database/Question/Question.xlsx
+++ b/database/Question/Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saugau/Desktop/PROJECT/he_thong_tao_de_thi_cho_giao_vien/database/Question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31386E2B-4139-A349-9E9A-100B7018E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723976C0-E61C-3E49-A3B1-16C1F8FA0942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{26E229AE-9D43-D648-8ECF-DF46BC807940}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Question_ID</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>tu_luan</t>
+  </si>
+  <si>
+    <t>Chapter</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE98341-F53D-C643-AAC1-D9BF753DA827}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,7 +481,7 @@
     <col min="2" max="2" width="75.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +497,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -511,8 +517,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,8 +537,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,8 +557,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,8 +577,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,8 +597,11 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,8 +617,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -613,8 +637,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -630,8 +657,11 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -647,8 +677,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -664,8 +697,11 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -681,8 +717,11 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -698,8 +737,11 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -715,8 +757,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -732,8 +777,11 @@
       <c r="E15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -748,6 +796,9 @@
       </c>
       <c r="E16">
         <v>2</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/database/Question/Question.xlsx
+++ b/database/Question/Question.xlsx
@@ -2,34 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saugau/Desktop/PROJECT/he_thong_tao_de_thi_cho_giao_vien/database/Question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723976C0-E61C-3E49-A3B1-16C1F8FA0942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A547932-A371-A749-A53A-9D66B0DE325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{26E229AE-9D43-D648-8ECF-DF46BC807940}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -51,9 +37,15 @@
     <t>Difficulty</t>
   </si>
   <si>
+    <t>Chapter</t>
+  </si>
+  <si>
     <t>Who invented OOP ?</t>
   </si>
   <si>
+    <t>trac_nghiem</t>
+  </si>
+  <si>
     <t>Which is not a feature of OOP in general definitions?</t>
   </si>
   <si>
@@ -81,12 +73,12 @@
     <t>Which feature of OOP is indicated by the following code?</t>
   </si>
   <si>
-    <t>trac_nghiem</t>
-  </si>
-  <si>
     <t>Why do we need to use OOPs?</t>
   </si>
   <si>
+    <t>tu_luan</t>
+  </si>
+  <si>
     <t>What is multiple inheritance?</t>
   </si>
   <si>
@@ -97,37 +89,24 @@
   </si>
   <si>
     <t>Define protected access modifier.</t>
-  </si>
-  <si>
-    <t>tu_luan</t>
-  </si>
-  <si>
-    <t>Chapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF3A3A3A"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF272C37"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -139,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,21 +126,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,44 +178,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -248,32 +242,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -300,24 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -329,190 +287,209 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE98341-F53D-C643-AAC1-D9BF753DA827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="75.83203125" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -525,14 +502,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -545,14 +522,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -565,14 +542,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -585,14 +562,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -605,14 +582,14 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -625,14 +602,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -645,14 +622,14 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -665,14 +642,14 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -685,14 +662,14 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -705,14 +682,14 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -725,14 +702,14 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -745,14 +722,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -765,14 +742,14 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
+      <c r="B15" t="s">
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -785,14 +762,14 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -802,6 +779,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>